--- a/ALUGUEL.xlsx
+++ b/ALUGUEL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49801332824\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49801332824\Desktop\Banco-de-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0493ED81-C1D6-4307-9BC8-4B268DCD8AED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A37663-3DCF-4E4D-9B0B-06746F710C17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{F9DC199C-7B38-4645-8333-E4E624023251}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Empresa</t>
   </si>
@@ -303,86 +303,86 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,42 +700,40 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="J1" s="30" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="J1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="J2" s="27" t="s">
         <v>5</v>
@@ -750,27 +748,25 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+      <c r="A3" s="22">
         <v>123</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="2">
-        <v>6555</v>
-      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="J3" s="18">
         <v>6555</v>
       </c>
       <c r="K3" s="18"/>
-      <c r="L3" s="19">
+      <c r="L3" s="30">
         <v>993</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="31"/>
       <c r="N3" s="6" t="s">
         <v>8</v>
       </c>
@@ -781,18 +777,16 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="2">
-        <v>6556</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="4"/>
       <c r="J4" s="18">
         <v>6556</v>
       </c>
       <c r="K4" s="18"/>
-      <c r="L4" s="19">
+      <c r="L4" s="30">
         <v>994</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="6" t="s">
         <v>9</v>
       </c>
@@ -803,75 +797,73 @@
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="2">
-        <v>6557</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="4"/>
       <c r="J5" s="18">
         <v>6557</v>
       </c>
       <c r="K5" s="18"/>
-      <c r="L5" s="19">
+      <c r="L5" s="30">
         <v>995</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="H9" s="23" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="H9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="P9" s="14" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="P9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="H10" s="15" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="H10" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="15"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13" t="s">
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="13"/>
+      <c r="S10" s="37"/>
       <c r="T10" s="9" t="s">
         <v>2</v>
       </c>
@@ -880,34 +872,34 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="A11" s="33">
         <v>1</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="H11" s="12">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="H11" s="35">
         <v>993</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12">
+      <c r="I11" s="35"/>
+      <c r="J11" s="35">
         <v>1</v>
       </c>
-      <c r="K11" s="12"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="36">
         <v>12</v>
       </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11">
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36">
         <v>6555</v>
       </c>
-      <c r="S11" s="11"/>
+      <c r="S11" s="36"/>
       <c r="T11" s="10" t="s">
         <v>23</v>
       </c>
@@ -916,34 +908,34 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="A12" s="33">
         <v>2</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="H12" s="12">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="H12" s="35">
         <v>994</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12">
+      <c r="I12" s="35"/>
+      <c r="J12" s="35">
         <v>2</v>
       </c>
-      <c r="K12" s="12"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="36">
         <v>13</v>
       </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11">
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36">
         <v>6556</v>
       </c>
-      <c r="S12" s="11"/>
+      <c r="S12" s="36"/>
       <c r="T12" s="10" t="s">
         <v>24</v>
       </c>
@@ -952,34 +944,34 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="A13" s="33">
         <v>3</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="H13" s="12">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="H13" s="35">
         <v>995</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12">
+      <c r="I13" s="35"/>
+      <c r="J13" s="35">
         <v>3</v>
       </c>
-      <c r="K13" s="12"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="36">
         <v>14</v>
       </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36">
         <v>6557</v>
       </c>
-      <c r="S13" s="11"/>
+      <c r="S13" s="36"/>
       <c r="T13" s="10" t="s">
         <v>25</v>
       </c>
@@ -988,82 +980,93 @@
       </c>
     </row>
     <row r="17" spans="8:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35" t="s">
+      <c r="I18" s="16"/>
+      <c r="J18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36" t="s">
+      <c r="K18" s="16"/>
+      <c r="L18" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H19" s="37">
+      <c r="H19" s="13">
         <v>444</v>
       </c>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37">
+      <c r="I19" s="13"/>
+      <c r="J19" s="13">
         <v>12</v>
       </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="38">
+      <c r="K19" s="13"/>
+      <c r="L19" s="12">
         <v>6555</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H20" s="37">
+      <c r="H20" s="13">
         <v>445</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37">
+      <c r="I20" s="13"/>
+      <c r="J20" s="13">
         <v>13</v>
       </c>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38">
+      <c r="K20" s="13"/>
+      <c r="L20" s="12">
         <v>6556</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.3">
-      <c r="H21" s="37">
+      <c r="H21" s="13">
         <v>446</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37">
+      <c r="I21" s="13"/>
+      <c r="J21" s="13">
         <v>14</v>
       </c>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38">
+      <c r="K21" s="13"/>
+      <c r="L21" s="12">
         <v>6557</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P9:U9"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="H9:L9"/>
     <mergeCell ref="D2:E2"/>
@@ -1075,31 +1078,20 @@
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P9:U9"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
